--- a/results/first_stage_results.xlsx
+++ b/results/first_stage_results.xlsx
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2131,7 +2131,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
